--- a/cont Sig.xlsx
+++ b/cont Sig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5326AD46-67FD-49EA-8241-0C9B516C31A8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E7061-649C-4906-93F0-715C67620C0F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>mux9</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>alucont</t>
+  </si>
+  <si>
+    <t>rsmux</t>
   </si>
 </sst>
 </file>
@@ -379,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -430,8 +433,11 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -477,8 +483,11 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -524,8 +533,11 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -571,8 +583,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -618,8 +633,11 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -665,8 +683,11 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -712,8 +733,11 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -748,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -759,8 +783,11 @@
       <c r="O8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -795,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -806,8 +833,11 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -853,8 +883,11 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -900,8 +933,11 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -947,8 +983,11 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -994,8 +1033,11 @@
       <c r="O13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1041,8 +1083,11 @@
       <c r="O14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1088,8 +1133,11 @@
       <c r="O15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1135,8 +1183,11 @@
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1182,8 +1233,11 @@
       <c r="O17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1229,8 +1283,11 @@
       <c r="O18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1276,8 +1333,11 @@
       <c r="O19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1323,8 +1383,11 @@
       <c r="O20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1370,8 +1433,11 @@
       <c r="O21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1417,8 +1483,11 @@
       <c r="O22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1464,8 +1533,11 @@
       <c r="O23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1511,8 +1583,11 @@
       <c r="O24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -1558,8 +1633,11 @@
       <c r="O25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -1605,8 +1683,11 @@
       <c r="O26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -1652,8 +1733,11 @@
       <c r="O27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -1699,8 +1783,11 @@
       <c r="O28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -1746,8 +1833,11 @@
       <c r="O29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -1793,8 +1883,11 @@
       <c r="O30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -1840,8 +1933,11 @@
       <c r="O31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -1887,8 +1983,11 @@
       <c r="O32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -1899,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1934,8 +2033,11 @@
       <c r="O33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
@@ -1981,8 +2083,11 @@
       <c r="O34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
@@ -2028,8 +2133,11 @@
       <c r="O35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
@@ -2075,8 +2183,11 @@
       <c r="O36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
@@ -2087,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -2120,6 +2231,9 @@
         <v>0</v>
       </c>
       <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
         <v>1</v>
       </c>
     </row>

--- a/cont Sig.xlsx
+++ b/cont Sig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6F959-6011-422D-9B64-7D192E2E5393}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA2866A-FF39-40B8-9D9B-2BB7645336A0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,8 +400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q25" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AD38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,109 +412,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="G1">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
-      <c r="N1">
-        <v>2</v>
-      </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>2</v>
-      </c>
-      <c r="T1">
-        <v>2</v>
-      </c>
-      <c r="V1">
-        <v>1</v>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>15</v>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -602,8 +603,8 @@
         <v>00010000</v>
       </c>
       <c r="Z3" s="2" t="str">
-        <f>MID(W3,16,8)</f>
-        <v>0000000</v>
+        <f t="shared" ref="Z3:Z38" si="0">MID(W3,15,8)</f>
+        <v>00000000</v>
       </c>
       <c r="AA3" t="str">
         <f>BIN2HEX(X3,2)</f>
@@ -633,21 +634,21 @@
         <v>0</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D38" si="0">DEC2BIN(C4,2)</f>
+        <f t="shared" ref="D4:D38" si="1">DEC2BIN(C4,2)</f>
         <v>00</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F38" si="1">DEC2BIN(E4,2)</f>
+        <f t="shared" ref="F4:F38" si="2">DEC2BIN(E4,2)</f>
         <v>00</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H38" si="2">DEC2BIN(G4,3)</f>
+        <f t="shared" ref="H4:H38" si="3">DEC2BIN(G4,3)</f>
         <v>100</v>
       </c>
       <c r="I4">
@@ -669,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O38" si="3">DEC2BIN(N4,2)</f>
+        <f t="shared" ref="O4:O38" si="4">DEC2BIN(N4,2)</f>
         <v>01</v>
       </c>
       <c r="P4">
@@ -682,34 +683,34 @@
         <v>0</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" ref="S4:S38" si="4">DEC2BIN(R4,2)</f>
+        <f t="shared" ref="S4:S38" si="5">DEC2BIN(R4,2)</f>
         <v>00</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" ref="U4:U38" si="5">DEC2BIN(T4,2)</f>
+        <f t="shared" ref="U4:U38" si="6">DEC2BIN(T4,2)</f>
         <v>00</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" s="2" t="str">
-        <f t="shared" ref="W4:W38" si="6">B4&amp;D4&amp;F4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;O4&amp;P4&amp;Q4&amp;S4&amp;U4&amp;V4</f>
+        <f t="shared" ref="W4:W38" si="7">B4&amp;D4&amp;F4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;O4&amp;P4&amp;Q4&amp;S4&amp;U4&amp;V4</f>
         <v>0000010001000010000000</v>
       </c>
       <c r="X4" s="2" t="str">
-        <f t="shared" ref="X4:X38" si="7">MID(W4,1,6)</f>
+        <f t="shared" ref="X4:X38" si="8">MID(W4,1,6)</f>
         <v>000001</v>
       </c>
       <c r="Y4" s="2" t="str">
-        <f t="shared" ref="Y4:Y38" si="8">MID(W4,7,8)</f>
+        <f t="shared" ref="Y4:Y38" si="9">MID(W4,7,8)</f>
         <v>00010000</v>
       </c>
       <c r="Z4" s="2" t="str">
-        <f t="shared" ref="Z4:Z38" si="9">MID(W4,16,8)</f>
-        <v>0000000</v>
+        <f t="shared" si="0"/>
+        <v>10000000</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" ref="AA4:AA38" si="10">BIN2HEX(X4,2)</f>
@@ -721,11 +722,11 @@
       </c>
       <c r="AC4" t="str">
         <f t="shared" ref="AC4:AC38" si="12">BIN2HEX(Z4,2)</f>
-        <v>00</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="str">
         <f t="shared" ref="AD4:AD38" si="13">AA4&amp;AB4&amp;AC4</f>
-        <v>011000</v>
+        <v>011080</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -739,21 +740,21 @@
         <v>0</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="I5">
@@ -775,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="P5">
@@ -788,34 +789,34 @@
         <v>0</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000010001000100000000</v>
       </c>
       <c r="X5" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000001</v>
       </c>
       <c r="Y5" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>00010001</v>
       </c>
       <c r="Z5" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000000</v>
+        <f t="shared" si="0"/>
+        <v>00000000</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="10"/>
@@ -845,21 +846,21 @@
         <v>0</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="I6">
@@ -881,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="P6">
@@ -894,34 +895,34 @@
         <v>0</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000010001000110000000</v>
       </c>
       <c r="X6" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000001</v>
       </c>
       <c r="Y6" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>00010001</v>
       </c>
       <c r="Z6" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000000</v>
+        <f t="shared" si="0"/>
+        <v>10000000</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="10"/>
@@ -933,11 +934,11 @@
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="str">
         <f t="shared" si="13"/>
-        <v>011100</v>
+        <v>011180</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -951,21 +952,21 @@
         <v>0</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="I7">
@@ -987,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P7">
@@ -1000,34 +1001,34 @@
         <v>0</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000010001000000000010</v>
       </c>
       <c r="X7" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000001</v>
       </c>
       <c r="Y7" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>00010000</v>
       </c>
       <c r="Z7" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <f t="shared" si="0"/>
+        <v>00000010</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="10"/>
@@ -1057,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="I8">
@@ -1093,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P8">
@@ -1106,34 +1107,34 @@
         <v>0</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000010001000001000010</v>
       </c>
       <c r="X8" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000001</v>
       </c>
       <c r="Y8" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>00010000</v>
       </c>
       <c r="Z8" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1000010</v>
+        <f t="shared" si="0"/>
+        <v>01000010</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="10"/>
@@ -1163,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="I9">
@@ -1199,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P9">
@@ -1212,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000010001000001100010</v>
       </c>
       <c r="X9" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000001</v>
       </c>
       <c r="Y9" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>00010000</v>
       </c>
       <c r="Z9" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1100010</v>
+        <f t="shared" si="0"/>
+        <v>01100010</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="10"/>
@@ -1269,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="I10">
@@ -1305,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P10">
@@ -1318,34 +1319,34 @@
         <v>0</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000010001000001100000</v>
       </c>
       <c r="X10" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000001</v>
       </c>
       <c r="Y10" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>00010000</v>
       </c>
       <c r="Z10" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>01100000</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="10"/>
@@ -1375,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I11">
@@ -1411,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P11">
@@ -1424,34 +1425,34 @@
         <v>0</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000000000000</v>
       </c>
       <c r="X11" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y11" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010000</v>
       </c>
       <c r="Z11" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000000</v>
+        <f t="shared" si="0"/>
+        <v>00000000</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="10"/>
@@ -1481,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I12">
@@ -1517,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
       <c r="P12">
@@ -1530,34 +1531,34 @@
         <v>0</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000010000000</v>
       </c>
       <c r="X12" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y12" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010000</v>
       </c>
       <c r="Z12" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000000</v>
+        <f t="shared" si="0"/>
+        <v>10000000</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="10"/>
@@ -1569,11 +1570,11 @@
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="12"/>
-        <v>00</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="13"/>
-        <v>029000</v>
+        <v>029080</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -1587,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I13">
@@ -1623,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="P13">
@@ -1636,34 +1637,34 @@
         <v>0</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>B13&amp;D13&amp;F13&amp;H13&amp;I13&amp;J13&amp;K13&amp;L13&amp;M13&amp;O13&amp;P13&amp;Q13&amp;S13&amp;U13&amp;V13</f>
         <v>0000101001000100000000</v>
       </c>
       <c r="X13" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y13" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010001</v>
       </c>
       <c r="Z13" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000000</v>
+        <f>MID(W13,15,8)</f>
+        <v>00000000</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="10"/>
@@ -1693,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I14">
@@ -1729,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="P14">
@@ -1742,34 +1743,34 @@
         <v>0</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000110000010</v>
       </c>
       <c r="X14" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y14" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010001</v>
       </c>
       <c r="Z14" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <f t="shared" si="0"/>
+        <v>10000010</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="10"/>
@@ -1781,11 +1782,11 @@
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="12"/>
-        <v>02</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="str">
         <f t="shared" si="13"/>
-        <v>029102</v>
+        <v>029182</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -1799,21 +1800,21 @@
         <v>0</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I15">
@@ -1835,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P15">
@@ -1848,34 +1849,34 @@
         <v>0</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T15">
         <v>1</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000000000010</v>
       </c>
       <c r="X15" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y15" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010000</v>
       </c>
       <c r="Z15" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <f t="shared" si="0"/>
+        <v>00000010</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="10"/>
@@ -1905,21 +1906,21 @@
         <v>0</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I16">
@@ -1941,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P16">
@@ -1954,34 +1955,34 @@
         <v>0</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000001000010</v>
       </c>
       <c r="X16" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y16" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010000</v>
       </c>
       <c r="Z16" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>1000010</v>
+        <f t="shared" si="0"/>
+        <v>01000010</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="10"/>
@@ -2011,21 +2012,21 @@
         <v>0</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I17">
@@ -2047,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P17">
@@ -2060,34 +2061,34 @@
         <v>0</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T17">
         <v>1</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000000000010</v>
       </c>
       <c r="X17" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y17" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010000</v>
       </c>
       <c r="Z17" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <f t="shared" si="0"/>
+        <v>00000010</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="10"/>
@@ -2117,21 +2118,21 @@
         <v>0</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I18">
@@ -2153,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P18">
@@ -2166,34 +2167,34 @@
         <v>0</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000000000010</v>
       </c>
       <c r="X18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y18" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010000</v>
       </c>
       <c r="Z18" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <f t="shared" si="0"/>
+        <v>00000010</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="10"/>
@@ -2223,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I19">
@@ -2259,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P19">
@@ -2272,34 +2273,34 @@
         <v>0</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000000000110</v>
       </c>
       <c r="X19" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y19" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010000</v>
       </c>
       <c r="Z19" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000110</v>
+        <f t="shared" si="0"/>
+        <v>00000110</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="10"/>
@@ -2329,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I20">
@@ -2365,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P20">
@@ -2378,34 +2379,34 @@
         <v>1</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>01</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000000001110</v>
       </c>
       <c r="X20" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y20" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010000</v>
       </c>
       <c r="Z20" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0001110</v>
+        <f t="shared" si="0"/>
+        <v>00001110</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="10"/>
@@ -2435,21 +2436,21 @@
         <v>0</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I21">
@@ -2471,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P21">
@@ -2484,34 +2485,34 @@
         <v>2</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000000010110</v>
       </c>
       <c r="X21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y21" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010000</v>
       </c>
       <c r="Z21" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0010110</v>
+        <f t="shared" si="0"/>
+        <v>00010110</v>
       </c>
       <c r="AA21" t="str">
         <f t="shared" si="10"/>
@@ -2541,21 +2542,21 @@
         <v>0</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I22">
@@ -2577,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P22">
@@ -2590,34 +2591,34 @@
         <v>3</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101001000000011110</v>
       </c>
       <c r="X22" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y22" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10010000</v>
       </c>
       <c r="Z22" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0011110</v>
+        <f t="shared" si="0"/>
+        <v>00011110</v>
       </c>
       <c r="AA22" t="str">
         <f t="shared" si="10"/>
@@ -2647,21 +2648,21 @@
         <v>0</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I23">
@@ -2683,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P23">
@@ -2696,34 +2697,34 @@
         <v>0</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T23">
         <v>1</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101011011000000010</v>
       </c>
       <c r="X23" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y23" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10110110</v>
       </c>
       <c r="Z23" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <f t="shared" si="0"/>
+        <v>00000010</v>
       </c>
       <c r="AA23" t="str">
         <f t="shared" si="10"/>
@@ -2753,21 +2754,21 @@
         <v>0</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>010</v>
       </c>
       <c r="I24">
@@ -2789,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P24">
@@ -2802,34 +2803,34 @@
         <v>0</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000101000101000000010</v>
       </c>
       <c r="X24" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000010</v>
       </c>
       <c r="Y24" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10001010</v>
       </c>
       <c r="Z24" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <f t="shared" si="0"/>
+        <v>00000010</v>
       </c>
       <c r="AA24" t="str">
         <f t="shared" si="10"/>
@@ -2859,21 +2860,21 @@
         <v>0</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="I25">
@@ -2895,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P25">
@@ -2908,34 +2909,34 @@
         <v>0</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000110000000000000010</v>
       </c>
       <c r="X25" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000011</v>
       </c>
       <c r="Y25" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>00000000</v>
       </c>
       <c r="Z25" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <f t="shared" si="0"/>
+        <v>00000010</v>
       </c>
       <c r="AA25" t="str">
         <f t="shared" si="10"/>
@@ -2965,21 +2966,21 @@
         <v>0</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="I26">
@@ -3001,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P26">
@@ -3014,34 +3015,34 @@
         <v>0</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T26">
         <v>1</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0000110000000000000010</v>
       </c>
       <c r="X26" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>000011</v>
       </c>
       <c r="Y26" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>00000000</v>
       </c>
       <c r="Z26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <f t="shared" si="0"/>
+        <v>00000010</v>
       </c>
       <c r="AA26" t="str">
         <f t="shared" si="10"/>
@@ -3071,83 +3072,83 @@
         <v>2</v>
       </c>
       <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>001</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0100100100000000100010</v>
+      </c>
+      <c r="X27" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>010010</v>
+      </c>
+      <c r="Y27" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01000000</v>
+      </c>
+      <c r="Z27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>01</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>001</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0100100100000000100010</v>
-      </c>
-      <c r="X27" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>010010</v>
-      </c>
-      <c r="Y27" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>01000000</v>
-      </c>
-      <c r="Z27" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0100010</v>
+        <v>00100010</v>
       </c>
       <c r="AA27" t="str">
         <f t="shared" si="10"/>
@@ -3177,83 +3178,83 @@
         <v>2</v>
       </c>
       <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>001</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0100100100000000100010</v>
+      </c>
+      <c r="X28" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>010010</v>
+      </c>
+      <c r="Y28" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01000000</v>
+      </c>
+      <c r="Z28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>01</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>001</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0100100100000000100010</v>
-      </c>
-      <c r="X28" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>010010</v>
-      </c>
-      <c r="Y28" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>01000000</v>
-      </c>
-      <c r="Z28" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0100010</v>
+        <v>00100010</v>
       </c>
       <c r="AA28" t="str">
         <f t="shared" si="10"/>
@@ -3283,83 +3284,83 @@
         <v>2</v>
       </c>
       <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>001</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0100100100000000100010</v>
+      </c>
+      <c r="X29" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>010010</v>
+      </c>
+      <c r="Y29" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01000000</v>
+      </c>
+      <c r="Z29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>01</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>001</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0100100100000000100010</v>
-      </c>
-      <c r="X29" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>010010</v>
-      </c>
-      <c r="Y29" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>01000000</v>
-      </c>
-      <c r="Z29" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0100010</v>
+        <v>00100010</v>
       </c>
       <c r="AA29" t="str">
         <f t="shared" si="10"/>
@@ -3389,83 +3390,83 @@
         <v>2</v>
       </c>
       <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>001</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0100100100000000100010</v>
+      </c>
+      <c r="X30" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>010010</v>
+      </c>
+      <c r="Y30" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01000000</v>
+      </c>
+      <c r="Z30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="1"/>
-        <v>01</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="2"/>
-        <v>001</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0100100100000000100010</v>
-      </c>
-      <c r="X30" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>010010</v>
-      </c>
-      <c r="Y30" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>01000000</v>
-      </c>
-      <c r="Z30" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0100010</v>
+        <v>00100010</v>
       </c>
       <c r="AA30" t="str">
         <f t="shared" si="10"/>
@@ -3495,83 +3496,83 @@
         <v>2</v>
       </c>
       <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>001</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0100100100000000100010</v>
+      </c>
+      <c r="X31" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>010010</v>
+      </c>
+      <c r="Y31" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01000000</v>
+      </c>
+      <c r="Z31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v>01</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="2"/>
-        <v>001</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0100100100000000100010</v>
-      </c>
-      <c r="X31" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>010010</v>
-      </c>
-      <c r="Y31" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>01000000</v>
-      </c>
-      <c r="Z31" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0100010</v>
+        <v>00100010</v>
       </c>
       <c r="AA31" t="str">
         <f t="shared" si="10"/>
@@ -3601,83 +3602,83 @@
         <v>2</v>
       </c>
       <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>001</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0100100100000000100010</v>
+      </c>
+      <c r="X32" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>010010</v>
+      </c>
+      <c r="Y32" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01000000</v>
+      </c>
+      <c r="Z32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="1"/>
-        <v>01</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>001</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0100100100000000100010</v>
-      </c>
-      <c r="X32" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>010010</v>
-      </c>
-      <c r="Y32" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>01000000</v>
-      </c>
-      <c r="Z32" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0100010</v>
+        <v>00100010</v>
       </c>
       <c r="AA32" t="str">
         <f t="shared" si="10"/>
@@ -3707,21 +3708,21 @@
         <v>2</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>011</v>
       </c>
       <c r="I33">
@@ -3743,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P33">
@@ -3756,34 +3757,34 @@
         <v>0</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0100101100000000000010</v>
       </c>
       <c r="X33" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>010010</v>
       </c>
       <c r="Y33" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11000000</v>
       </c>
       <c r="Z33" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <f t="shared" si="0"/>
+        <v>00000010</v>
       </c>
       <c r="AA33" t="str">
         <f t="shared" si="10"/>
@@ -3813,21 +3814,21 @@
         <v>2</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>000</v>
       </c>
       <c r="I34">
@@ -3849,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P34">
@@ -3862,34 +3863,34 @@
         <v>0</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T34">
         <v>1</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V34">
         <v>1</v>
       </c>
       <c r="W34" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1101000001000000000011</v>
       </c>
       <c r="X34" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>110100</v>
       </c>
       <c r="Y34" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>00010000</v>
       </c>
       <c r="Z34" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000011</v>
+        <f t="shared" si="0"/>
+        <v>00000011</v>
       </c>
       <c r="AA34" t="str">
         <f t="shared" si="10"/>
@@ -3919,83 +3920,83 @@
         <v>0</v>
       </c>
       <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="3"/>
+        <v>000</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0000100001000000000010</v>
+      </c>
+      <c r="X35" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>000010</v>
+      </c>
+      <c r="Y35" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>00010000</v>
+      </c>
+      <c r="Z35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="1"/>
-        <v>01</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0000100001000000000010</v>
-      </c>
-      <c r="X35" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>000010</v>
-      </c>
-      <c r="Y35" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>00010000</v>
-      </c>
-      <c r="Z35" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <v>00000010</v>
       </c>
       <c r="AA35" t="str">
         <f t="shared" si="10"/>
@@ -4025,83 +4026,83 @@
         <v>0</v>
       </c>
       <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="3"/>
+        <v>000</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0000100001000000000010</v>
+      </c>
+      <c r="X36" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>000010</v>
+      </c>
+      <c r="Y36" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>00010000</v>
+      </c>
+      <c r="Z36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
-        <v>01</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0000100001000000000010</v>
-      </c>
-      <c r="X36" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>000010</v>
-      </c>
-      <c r="Y36" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>00010000</v>
-      </c>
-      <c r="Z36" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <v>00000010</v>
       </c>
       <c r="AA36" t="str">
         <f t="shared" si="10"/>
@@ -4131,83 +4132,83 @@
         <v>1</v>
       </c>
       <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="3"/>
+        <v>000</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="5"/>
+        <v>00</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0010100000000000000010</v>
+      </c>
+      <c r="X37" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>001010</v>
+      </c>
+      <c r="Y37" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>01</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0010100000000000000010</v>
-      </c>
-      <c r="X37" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>001010</v>
-      </c>
-      <c r="Y37" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z37" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000010</v>
+        <v>00000010</v>
       </c>
       <c r="AA37" t="str">
         <f t="shared" si="10"/>
@@ -4237,21 +4238,21 @@
         <v>1</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>011</v>
       </c>
       <c r="I38">
@@ -4273,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="P38">
@@ -4286,41 +4287,41 @@
         <v>0</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00</v>
       </c>
       <c r="T38">
         <v>1</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="V38">
         <v>1</v>
       </c>
       <c r="W38" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1011001101000000000011</v>
       </c>
       <c r="X38" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>101100</v>
       </c>
       <c r="Y38" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11010000</v>
       </c>
       <c r="Z38" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0000011</v>
+        <f t="shared" si="0"/>
+        <v>00000011</v>
       </c>
       <c r="AA38" t="str">
         <f t="shared" si="10"/>
         <v>2C</v>
       </c>
       <c r="AB38" t="str">
-        <f t="shared" ref="AB4:AB38" si="14">BIN2HEX(Y38)</f>
+        <f t="shared" ref="AB38" si="14">BIN2HEX(Y38)</f>
         <v>D0</v>
       </c>
       <c r="AC38" t="str">
